--- a/data/trans_camb/P08_2_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P08_2_R-Edad-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>-0.4506720615374205</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-0.669596152649593</v>
+        <v>-0.6695961526495934</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.570567596751337</v>
+        <v>-2.343679246007419</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.359684393517398</v>
+        <v>-3.59675303446954</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.922392386206123</v>
+        <v>-3.133192827695495</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.275116319366147</v>
+        <v>-1.280640213396619</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.340239846950469</v>
+        <v>-1.226701151695021</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-2.161683123513049</v>
+        <v>-2.263943375649507</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.333239343700009</v>
+        <v>-1.288134541612334</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.781695135113942</v>
+        <v>-1.768321171779842</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-2.32981737828774</v>
+        <v>-2.266195621531888</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.149338829852729</v>
+        <v>1.169534354327623</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.2902971504823715</v>
+        <v>-0.2454554133550226</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.712583534296654</v>
+        <v>1.730905534962216</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.458831900697879</v>
+        <v>3.581111808172385</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.643595136063436</v>
+        <v>3.494224996652154</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.295899518170208</v>
+        <v>3.360761423158608</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.644237202520495</v>
+        <v>1.729463531515455</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9432920781000711</v>
+        <v>1.062042722095951</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.265246260901779</v>
+        <v>1.425695943936367</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>-0.1743173887177385</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.2589959813065303</v>
+        <v>-0.2589959813065305</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.7375494981461606</v>
+        <v>-0.6951628540568962</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.931433764161215</v>
+        <v>-1</v>
       </c>
       <c r="E8" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.380678535840694</v>
+        <v>-0.4057606943816701</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4049941007673949</v>
+        <v>-0.3952533295686907</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.6792186788536917</v>
+        <v>-0.707783850604248</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4121513078209891</v>
+        <v>-0.4095564106255203</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5485486470721008</v>
+        <v>-0.548874978177542</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.731265228446104</v>
+        <v>-0.7233317518595541</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.6802827703209191</v>
+        <v>0.7215360671988122</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.04252876265047235</v>
+        <v>0.05914984680314313</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.628201440898695</v>
+        <v>1.393111315454983</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.109350689992216</v>
+        <v>2.151702910534627</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.263099106620249</v>
+        <v>2.120945215863638</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.853898949075244</v>
+        <v>2.214801430290643</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9051388746980024</v>
+        <v>0.9115366566013113</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.50217357266608</v>
+        <v>0.6101456874608236</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.6557072760703692</v>
+        <v>0.7587417516820532</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.211984910331298</v>
+        <v>-1.180195793938921</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.974815487600736</v>
+        <v>-2.231977120650614</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.987706703386032</v>
+        <v>-1.801464334129816</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.149948570152525</v>
+        <v>-3.856951437625856</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.831803001559274</v>
+        <v>-4.013294244976527</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-6.457610816783115</v>
+        <v>-6.718609425321358</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.634517306156752</v>
+        <v>-1.887561530796784</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.277076112598926</v>
+        <v>-2.371399256225359</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-3.443879590565242</v>
+        <v>-3.567100516698012</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.924968274794758</v>
+        <v>2.897940308764961</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.701402454647049</v>
+        <v>1.635461146738554</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.982253767418909</v>
+        <v>2.6781604854572</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.226684463251945</v>
+        <v>1.238031328305786</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.328725291110549</v>
+        <v>1.209176496585623</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-2.239421172908426</v>
+        <v>-2.240602705944013</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.447526891158688</v>
+        <v>1.603962560043925</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9287842578697072</v>
+        <v>0.7761835926764993</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-0.2367419330587036</v>
+        <v>-0.3422272203721248</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3313435452322815</v>
+        <v>-0.3088003655273843</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5276475126637518</v>
+        <v>-0.5617571999009658</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.5326124833882933</v>
+        <v>-0.5017824536578318</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.5774697328106971</v>
+        <v>-0.5421234760951511</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5564821871980827</v>
+        <v>-0.5754496260817749</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.8942316287635513</v>
+        <v>-0.8988362121353469</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3341202825424491</v>
+        <v>-0.3545680262687624</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4465412083394453</v>
+        <v>-0.4594604631215878</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.6846435815972394</v>
+        <v>-0.6998625559804201</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.434364316459504</v>
+        <v>1.403616108421698</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.896210742536495</v>
+        <v>0.8129678259236442</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.408674634027906</v>
+        <v>1.167128641923002</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.2827348517328668</v>
+        <v>0.3025363629035915</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3166969146186768</v>
+        <v>0.2958329358322538</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.4502027412290556</v>
+        <v>-0.4726571412161037</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4437326634011087</v>
+        <v>0.4891307181202337</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2815949800745617</v>
+        <v>0.2337606971749651</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.03244518228081121</v>
+        <v>-0.08392547581749481</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.737019866218276</v>
+        <v>-1.742580243923313</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.980771070779106</v>
+        <v>-1.88155389695782</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.359081918471946</v>
+        <v>-2.593798606224273</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2064431761240962</v>
+        <v>0.2404891447233238</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.95057290091595</v>
+        <v>-2.980785388633951</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-2.733733317085985</v>
+        <v>-2.852712574481925</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.00766784090572052</v>
+        <v>0.03523601416020529</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.637647508935445</v>
+        <v>-1.711105854946289</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.839128469268916</v>
+        <v>-1.95699779750808</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.326137162545498</v>
+        <v>3.278393500073769</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.88167019255261</v>
+        <v>3.032673273491811</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.406243023545436</v>
+        <v>2.436777870064327</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.37940508989181</v>
+        <v>6.371807101720027</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.779768336534898</v>
+        <v>2.680346267519272</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.34309115807255</v>
+        <v>2.547762373551112</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.779773920091469</v>
+        <v>4.020216274851569</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.021419962905594</v>
+        <v>2.043782003051698</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.596780075217266</v>
+        <v>1.848097317528243</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2865023222774071</v>
+        <v>-0.2882748308716557</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3428432049489987</v>
+        <v>-0.3098884253784881</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3965909816613052</v>
+        <v>-0.4026113223826262</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.02598529973177841</v>
+        <v>0.01589380218372205</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3306312417445151</v>
+        <v>-0.3353381639794767</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3153806774401546</v>
+        <v>-0.3288127394018544</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.01665017487991923</v>
+        <v>-0.002656630488442318</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2348917922543312</v>
+        <v>-0.2433194320361357</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.259740379805481</v>
+        <v>-0.2709471936244949</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.849206924288162</v>
+        <v>0.8698216560219976</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.8028906578447899</v>
+        <v>0.7739025858274796</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.6533272326542402</v>
+        <v>0.6526221652270022</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.133414941185427</v>
+        <v>1.044130503901826</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.479489767417799</v>
+        <v>0.4659136830030666</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4135220682649352</v>
+        <v>0.4211296848039473</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7142508368369469</v>
+        <v>0.7694551387115824</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.3807459313009499</v>
+        <v>0.3937566965477162</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.2976719993881418</v>
+        <v>0.3466443132485625</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>2.234335265785421</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1.584937729752475</v>
+        <v>1.584937729752474</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.4946710882308719</v>
@@ -1297,7 +1297,7 @@
         <v>-1.45243019747428</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-3.846982917986969</v>
+        <v>-3.846982917986966</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.6699272174617882</v>
@@ -1306,7 +1306,7 @@
         <v>0.4047466638951336</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-1.109057431208176</v>
+        <v>-1.109057431208171</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.719519321093835</v>
+        <v>-2.962044199994383</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.89126703791596</v>
+        <v>-1.469342909733102</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.810861194371639</v>
+        <v>-2.114679576278685</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.61365951386557</v>
+        <v>-3.933603541052676</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-6.01493499790605</v>
+        <v>-5.71291765681757</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-7.660013015294183</v>
+        <v>-7.345117477836929</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.352219932381721</v>
+        <v>-2.339169095098237</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.747324035182749</v>
+        <v>-2.608732087339502</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-3.939509391936649</v>
+        <v>-3.671605718904991</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.694522589314683</v>
+        <v>4.543207187909236</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.080354321252475</v>
+        <v>5.888490915553694</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.25522748440638</v>
+        <v>4.995420077635082</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.904733999823264</v>
+        <v>5.123615011731773</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.804349995864901</v>
+        <v>2.868254421848543</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-0.3961536646541543</v>
+        <v>-0.2818698585575521</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.521434735101868</v>
+        <v>3.648823657397985</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.25136690512338</v>
+        <v>3.261018719513621</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.384620151479646</v>
+        <v>1.653748725927546</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.2278473876115385</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.161624769022352</v>
+        <v>0.1616247690223518</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.03066711588705092</v>
@@ -1402,7 +1402,7 @@
         <v>-0.09004335657273653</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.2384935642455623</v>
+        <v>-0.2384935642455621</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.05170148597276814</v>
@@ -1411,7 +1411,7 @@
         <v>0.03123623495278059</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.08559126383885775</v>
+        <v>-0.08559126383885743</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2464791950407198</v>
+        <v>-0.2454659937260159</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1499567776161077</v>
+        <v>-0.1311976357667823</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1570603303193452</v>
+        <v>-0.1914364852505282</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1954823778852789</v>
+        <v>-0.2158546903541985</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.325773428476823</v>
+        <v>-0.3170654267336638</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4117537865971397</v>
+        <v>-0.3968647192581212</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1600140662410227</v>
+        <v>-0.1602391836107149</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1897338448305965</v>
+        <v>-0.1789093929323658</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.264651291788656</v>
+        <v>-0.2529894457374857</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.5850832089274929</v>
+        <v>0.5627506329320249</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.7840654749119245</v>
+        <v>0.7096893920944584</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.6945987631650252</v>
+        <v>0.6338199515441</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.3648300859196582</v>
+        <v>0.3502456538292371</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2100258069192482</v>
+        <v>0.2189059471051362</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.02781409461621556</v>
+        <v>-0.01652730079265299</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3131608983972328</v>
+        <v>0.3192105178078419</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2830291539618065</v>
+        <v>0.2838868331278304</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.1322595321269337</v>
+        <v>0.1530111409647613</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-4.497483986878939</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-4.052212814838035</v>
+        <v>-4.052212814838038</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>5.558255284058794</v>
@@ -1511,7 +1511,7 @@
         <v>1.072221309242533</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-5.141224548498341</v>
+        <v>-5.141224548498336</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>0.6977043930251947</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-9.775551675668037</v>
+        <v>-9.705108956354431</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-10.18459767863306</v>
+        <v>-10.26980794623371</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-9.615294502254644</v>
+        <v>-9.375148041954102</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.9030359436887401</v>
+        <v>-1.883099906030413</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-5.932551171196993</v>
+        <v>-5.034517691640402</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-10.16400453623227</v>
+        <v>-10.99341441130152</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-3.958083927182471</v>
+        <v>-4.310152248593083</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-6.125976241913923</v>
+        <v>-5.800416089951904</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-8.428803618267811</v>
+        <v>-8.286835235238858</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.473995566984686</v>
+        <v>1.632193885401468</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.401894811852821</v>
+        <v>1.118040276822966</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.9644544681594597</v>
+        <v>1.129633699919742</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>11.77176584303595</v>
+        <v>11.7345604875204</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>6.930616004055199</v>
+        <v>7.714410617588467</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.2490783949892448</v>
+        <v>-0.05909268276275499</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>5.053202867252175</v>
+        <v>5.209201351389608</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>2.754579160002015</v>
+        <v>3.060409013569274</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-0.2900891265217915</v>
+        <v>-1.485831868647628</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.1816233909004143</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.1636418571423826</v>
+        <v>-0.1636418571423827</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.1800387911257405</v>
@@ -1616,7 +1616,7 @@
         <v>0.03473057973586274</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.1665306477146384</v>
+        <v>-0.1665306477146382</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.02502134837051679</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.3576632583258278</v>
+        <v>-0.3532247403363752</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3620070291744428</v>
+        <v>-0.3759906672837577</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.3372751203310426</v>
+        <v>-0.3343880533960629</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.02643341657105384</v>
+        <v>-0.05602066400875692</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1674032672227043</v>
+        <v>-0.1431760914801849</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.2932400829590774</v>
+        <v>-0.3116891232080592</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.127561744729878</v>
+        <v>-0.1404157372145763</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.2037510368708815</v>
+        <v>-0.1950067622312022</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.2788318280096266</v>
+        <v>-0.2750823643587809</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.06408984972562244</v>
+        <v>0.077033437260268</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.07525958666847518</v>
+        <v>0.0533345201518169</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.05717522958154874</v>
+        <v>0.05078215099853575</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.432312193778032</v>
+        <v>0.4178831565762995</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.2521542953886805</v>
+        <v>0.2727166075489179</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.01071453917371936</v>
+        <v>-0.002082511187222034</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1992137702797288</v>
+        <v>0.1971925885082253</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.1098302182577616</v>
+        <v>0.1173107312830501</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.01325071550814933</v>
+        <v>-0.0540377568202445</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>-13.50719146684433</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-20.13420284253071</v>
+        <v>-20.13420284253072</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>1.903132025909859</v>
@@ -1734,7 +1734,7 @@
         <v>-7.593699637114798</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-15.43878749668306</v>
+        <v>-15.43878749668307</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-1.268777786812986</v>
+        <v>-0.8045934516641639</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-8.071946765623979</v>
+        <v>-7.729459179177566</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-15.84953490842727</v>
+        <v>-16.17274530028089</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-9.25359252359088</v>
+        <v>-10.01579807453035</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-20.60047940438145</v>
+        <v>-20.93348732796739</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-26.48657144005922</v>
+        <v>-26.04193795754948</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-4.218967058013305</v>
+        <v>-3.559029031402891</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-12.76309591224355</v>
+        <v>-12.80914780153416</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-20.14060216163437</v>
+        <v>-20.41050727301261</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>15.07267498913833</v>
+        <v>15.63849417627218</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>6.661148816465995</v>
+        <v>7.512750222418919</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-2.099076919494431</v>
+        <v>-2.547728489613263</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>5.308882986713755</v>
+        <v>5.213765135780603</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-6.061959512317515</v>
+        <v>-7.009042812742142</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-13.72688399857759</v>
+        <v>-14.51176128712024</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>7.798274678355691</v>
+        <v>7.962985441159791</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-2.485823339156207</v>
+        <v>-1.914724001346869</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-10.79535134748819</v>
+        <v>-10.67342912260485</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>-0.2200484325490135</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.3280104370326121</v>
+        <v>-0.3280104370326122</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.03883169829689895</v>
@@ -1839,7 +1839,7 @@
         <v>-0.1549426152527368</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.3150145812161998</v>
+        <v>-0.3150145812161999</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.03365856861758113</v>
+        <v>-0.02251975574200809</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.2122609313756601</v>
+        <v>-0.2014885572472541</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.4023997493852123</v>
+        <v>-0.4165684117913124</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.1432554544031105</v>
+        <v>-0.1559109562687159</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.3186711764807362</v>
+        <v>-0.3265195495037856</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.4075776001948699</v>
+        <v>-0.4011824277207205</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.08159109718041066</v>
+        <v>-0.06829656050861309</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.2473532423294127</v>
+        <v>-0.2469478786571317</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.385233221573196</v>
+        <v>-0.389496100105422</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.4883914770449149</v>
+        <v>0.5126744000677271</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.2165432056707954</v>
+        <v>0.2469883493672486</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.07225427714003455</v>
+        <v>-0.08908569755514606</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.09173117094138161</v>
+        <v>0.09246241253547358</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.103713658817575</v>
+        <v>-0.1234435084273858</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.2406672595138974</v>
+        <v>-0.2520021417785522</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1655210180490846</v>
+        <v>0.1690411837502993</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>-0.05379953575578762</v>
+        <v>-0.04086588498536733</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.233657506520368</v>
+        <v>-0.2338574546358721</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>-10.30831880570457</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-13.30417395370084</v>
+        <v>-13.30417395370085</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>2.893719284916241</v>
@@ -1948,7 +1948,7 @@
         <v>-9.402526621941353</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>-7.29574771144933</v>
+        <v>-7.295747711449341</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-5.145659784856583</v>
+        <v>-5.486008654263672</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-19.02236287958831</v>
+        <v>-18.44872836860045</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-22.19723076197314</v>
+        <v>-21.18563141933717</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-2.942969088546147</v>
+        <v>-3.319438390398682</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-15.49194266647581</v>
+        <v>-15.55505903965046</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-7.787935744546863</v>
+        <v>-7.79559483355376</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-1.912310348603494</v>
+        <v>-1.56667638649134</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-14.51582982860196</v>
+        <v>-14.24487558962177</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-11.90002958765547</v>
+        <v>-11.88956632555094</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>11.4680430181843</v>
+        <v>12.26835621439898</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-2.188109208278019</v>
+        <v>-0.8911784086950437</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-5.680679684967477</v>
+        <v>-5.504784820902228</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>9.017177904166475</v>
+        <v>9.003580323278882</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>-2.279020252259604</v>
+        <v>-1.708995703040859</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>3.059740912953191</v>
+        <v>2.626916768135378</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>7.849159287741911</v>
+        <v>8.40505729679195</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-4.296665474969386</v>
+        <v>-3.458721154332705</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-2.850019544521908</v>
+        <v>-2.474166278991787</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>-0.1522053721751592</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.1964400583910431</v>
+        <v>-0.1964400583910433</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.03594995296255239</v>
@@ -2053,7 +2053,7 @@
         <v>-0.1244287347802107</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>-0.09654858672698159</v>
+        <v>-0.09654858672698174</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.07116580998475455</v>
+        <v>-0.07631057581431118</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.2665350875397883</v>
+        <v>-0.2571649623676504</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.3032652881333182</v>
+        <v>-0.2917691118450545</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.03504404814680333</v>
+        <v>-0.03940498102927777</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.1830157784890215</v>
+        <v>-0.1870087232403654</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.09320103625110265</v>
+        <v>-0.09449565349272289</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.02409010099249013</v>
+        <v>-0.01911625237215863</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.1863154644259981</v>
+        <v>-0.1843599263830916</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.1517624039089427</v>
+        <v>-0.1526867416803074</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.1849409180780303</v>
+        <v>0.1968220976191508</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.03479664885323933</v>
+        <v>-0.01368083583473826</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.09058407205932693</v>
+        <v>-0.08763654787463988</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.1172327889716489</v>
+        <v>0.117875339606539</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>-0.02949067604208993</v>
+        <v>-0.02234884501478704</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.04020063409948137</v>
+        <v>0.03367818718534977</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1089812618102158</v>
+        <v>0.1159654174020811</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.05834856111261379</v>
+        <v>-0.04891700776160104</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.03925106325573111</v>
+        <v>-0.03476031557373552</v>
       </c>
     </row>
     <row r="46">
@@ -2153,7 +2153,7 @@
         <v>-0.4334928327501819</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>-0.4992937171806544</v>
+        <v>-0.4992937171806572</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>2.092315094180255</v>
@@ -2162,7 +2162,7 @@
         <v>0.08510254035779263</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>0.3139551999423396</v>
+        <v>0.3139551999423423</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-0.1581050696815269</v>
+        <v>-0.1423471663206326</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-0.8994802976415732</v>
+        <v>-1.163993442820209</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-0.5695309593905419</v>
+        <v>-0.6630481216488977</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>0.4836446353306176</v>
+        <v>0.5082150063025971</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-2.447349073006445</v>
+        <v>-2.594965634245361</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-2.367119024233247</v>
+        <v>-2.335935437275999</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>0.6657587892565595</v>
+        <v>0.6928073999880277</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-1.33240837426168</v>
+        <v>-1.287292278577941</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-0.9770202270397296</v>
+        <v>-0.8380382991878096</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>3.444955357956872</v>
+        <v>3.399180114791739</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>2.384273389599728</v>
+        <v>2.195306476988112</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>2.808053917322482</v>
+        <v>2.899688313651396</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>4.65006378544132</v>
+        <v>4.53464513612809</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>1.539066978414914</v>
+        <v>1.59746542058828</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>1.232200367506618</v>
+        <v>1.393310389844325</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>3.472455449146736</v>
+        <v>3.408399230572636</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>1.413853254238541</v>
+        <v>1.334863993945369</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>1.493992193123393</v>
+        <v>1.481215753715007</v>
       </c>
     </row>
     <row r="49">
@@ -2258,7 +2258,7 @@
         <v>-0.01864641437377282</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>-0.02147679694196261</v>
+        <v>-0.02147679694196273</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.1121326816569205</v>
@@ -2267,7 +2267,7 @@
         <v>0.00456086948504013</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>0.0168256868134204</v>
+        <v>0.01682568681342055</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.008761732311481108</v>
+        <v>-0.01044639556526036</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.06236374526308006</v>
+        <v>-0.08078001923838951</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.0390219283301245</v>
+        <v>-0.04479478059961021</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.02023115169467904</v>
+        <v>0.02106464300267355</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.1016514051609937</v>
+        <v>-0.1042260655682608</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.09692460946326818</v>
+        <v>-0.09633001263006565</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.03435867608649257</v>
+        <v>0.03572134683023525</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.07047869518385257</v>
+        <v>-0.06596354096187858</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.04953530747030776</v>
+        <v>-0.04406949791432192</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.2680769783113809</v>
+        <v>0.2581698237900249</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.1809990681664386</v>
+        <v>0.1638719060583906</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.2122892482515115</v>
+        <v>0.2235983409620098</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.2115012429422967</v>
+        <v>0.2045280348781225</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.06876660582684048</v>
+        <v>0.07388900245704812</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.05391278193272558</v>
+        <v>0.06571734043068578</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.1952626915159646</v>
+        <v>0.1903939491169195</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.07914669862767552</v>
+        <v>0.07443381852218976</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.08328715886519382</v>
+        <v>0.0822826334158348</v>
       </c>
     </row>
     <row r="52">
